--- a/biology/Médecine/1405_en_santé_et_médecine/1405_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1405_en_santé_et_médecine/1405_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1405_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1405_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1405 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1405_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1405_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation d'une maison-Dieu à Mormant, confiée à l'origine aux augustins, et qui deviendra commanderie templière puis hospitalière[1].
-Fondation d'un hôpital à Opoczno, en Pologne[2].
-Un hôtel-Dieu est attesté à Luynes, en Touraine[3].
-L'hôpital Saint-Georges (St. George's Hospital) est attesté à Bodmin en Cornouailles[4].
-Les statuts de l'université de Bologne, en y autorisant officiellement les dissections qui s'y pratiquent en fait depuis longtemps, limitent le nombre des étudiants qui y assistent à vingt ou à trente, selon qu'il s'agit d'un homme ou d'une femme, le second cas étant plus rare[5].
-La citoyenneté romaine est accordée à Elijah di Sabbato, médecin juif que les papes Martin V et Eugène IV prendront à leur service[6].
-1405-1406 : fondation de l'Officium pietatis pauperum de Milan, composé de clercs et de laïcs chargés d'organiser l'assistance aux pauvres et leur placement dans les hospices[7],[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation d'une maison-Dieu à Mormant, confiée à l'origine aux augustins, et qui deviendra commanderie templière puis hospitalière.
+Fondation d'un hôpital à Opoczno, en Pologne.
+Un hôtel-Dieu est attesté à Luynes, en Touraine.
+L'hôpital Saint-Georges (St. George's Hospital) est attesté à Bodmin en Cornouailles.
+Les statuts de l'université de Bologne, en y autorisant officiellement les dissections qui s'y pratiquent en fait depuis longtemps, limitent le nombre des étudiants qui y assistent à vingt ou à trente, selon qu'il s'agit d'un homme ou d'une femme, le second cas étant plus rare.
+La citoyenneté romaine est accordée à Elijah di Sabbato, médecin juif que les papes Martin V et Eugène IV prendront à leur service.
+1405-1406 : fondation de l'Officium pietatis pauperum de Milan, composé de clercs et de laïcs chargés d'organiser l'assistance aux pauvres et leur placement dans les hospices,.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1405_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1405_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Rédaction à Erfurt d'un Tractatus de peste sananda ad rectores Erfodenses[9].
-Le De urina non visa de Guillaume l'Anglais, publié en 1220, est au programme des lectures de la faculté de médecine de Bologne[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rédaction à Erfurt d'un Tractatus de peste sananda ad rectores Erfodenses.
+Le De urina non visa de Guillaume l'Anglais, publié en 1220, est au programme des lectures de la faculté de médecine de Bologne.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1405_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1405_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,11 +594,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Évrart de Conty (né vers 1330), médecin du roi Charles V, maître régent à la faculté de médecine de Paris[11].
-Marsile de Sainte-Sophie (né à une date inconnue), professeur de logique et de médecine à Padoue[12].
-Après 1405 : Konrad Kyeser (né en 1366), médecin et ingénieur militaire allemand[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Évrart de Conty (né vers 1330), médecin du roi Charles V, maître régent à la faculté de médecine de Paris.
+Marsile de Sainte-Sophie (né à une date inconnue), professeur de logique et de médecine à Padoue.
+Après 1405 : Konrad Kyeser (né en 1366), médecin et ingénieur militaire allemand.
 </t>
         </is>
       </c>
